--- a/data/pca/factorExposure/factorExposure_2017-12-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.009653437628016766</v>
+        <v>-0.01269898197793304</v>
       </c>
       <c r="C2">
-        <v>0.002353104210306796</v>
+        <v>-0.03840997568064487</v>
       </c>
       <c r="D2">
-        <v>-0.02412524916648008</v>
+        <v>0.02840468314570501</v>
       </c>
       <c r="E2">
-        <v>-0.06230103719263995</v>
+        <v>-0.02662903486355895</v>
       </c>
       <c r="F2">
-        <v>0.005030337039796815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03270052462967902</v>
+      </c>
+      <c r="G2">
+        <v>-0.01173233565322158</v>
+      </c>
+      <c r="H2">
+        <v>0.008678464166503096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.07193937355056471</v>
+        <v>-0.0661893160583259</v>
       </c>
       <c r="C3">
-        <v>0.002132746879921137</v>
+        <v>-0.08245179144051853</v>
       </c>
       <c r="D3">
-        <v>0.05265748346374675</v>
+        <v>0.01295178859876508</v>
       </c>
       <c r="E3">
-        <v>-0.2434814804622266</v>
+        <v>-0.07329146288968151</v>
       </c>
       <c r="F3">
-        <v>0.05158992187559411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.08303904571942494</v>
+      </c>
+      <c r="G3">
+        <v>-0.06362081784064295</v>
+      </c>
+      <c r="H3">
+        <v>-0.004534838260081339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03714206852821877</v>
+        <v>-0.05454512286718896</v>
       </c>
       <c r="C4">
-        <v>-0.01889728275931749</v>
+        <v>-0.05962180298928138</v>
       </c>
       <c r="D4">
-        <v>-0.03340209510923918</v>
+        <v>0.0214688585010637</v>
       </c>
       <c r="E4">
-        <v>-0.03538792096333263</v>
+        <v>0.001639742781386922</v>
       </c>
       <c r="F4">
-        <v>-0.03261500426903917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01823552760880484</v>
+      </c>
+      <c r="G4">
+        <v>-0.03619068700290021</v>
+      </c>
+      <c r="H4">
+        <v>-0.03115277087824513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.06341746470660509</v>
+        <v>-0.03007592876055884</v>
       </c>
       <c r="C6">
-        <v>-0.01035266060396149</v>
+        <v>-0.056891919016973</v>
       </c>
       <c r="D6">
-        <v>-0.04734397524908773</v>
+        <v>0.01608831518826588</v>
       </c>
       <c r="E6">
-        <v>-0.02830086368768326</v>
+        <v>-0.003188101370046258</v>
       </c>
       <c r="F6">
-        <v>-0.05055035199543539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01718019335768253</v>
+      </c>
+      <c r="G6">
+        <v>-0.01950100223704552</v>
+      </c>
+      <c r="H6">
+        <v>-0.00822804951523471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02619132697184644</v>
+        <v>-0.01746228023134843</v>
       </c>
       <c r="C7">
-        <v>-0.06940495953507732</v>
+        <v>-0.03646413788349986</v>
       </c>
       <c r="D7">
-        <v>0.004550972690178589</v>
+        <v>0.01222192451142042</v>
       </c>
       <c r="E7">
-        <v>-0.01026375035600672</v>
+        <v>0.01611093491917241</v>
       </c>
       <c r="F7">
-        <v>0.0129971951948851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.008052897220098535</v>
+      </c>
+      <c r="G7">
+        <v>-0.07267223021938754</v>
+      </c>
+      <c r="H7">
+        <v>-0.0007879813728803689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01081923877404051</v>
+        <v>0.004869020941704546</v>
       </c>
       <c r="C8">
-        <v>-0.007650739252196408</v>
+        <v>-0.01316627294950284</v>
       </c>
       <c r="D8">
-        <v>-0.0170007184164954</v>
+        <v>0.003640765085657316</v>
       </c>
       <c r="E8">
-        <v>-0.03388122999717896</v>
+        <v>-0.01131070579570009</v>
       </c>
       <c r="F8">
-        <v>0.01117179721880496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02257475926158328</v>
+      </c>
+      <c r="G8">
+        <v>-0.02406156811153719</v>
+      </c>
+      <c r="H8">
+        <v>-0.02237849752623251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03116418091627154</v>
+        <v>-0.02741764029508391</v>
       </c>
       <c r="C9">
-        <v>-0.01267820408369869</v>
+        <v>-0.04149278903826235</v>
       </c>
       <c r="D9">
-        <v>-0.02142394747852705</v>
+        <v>0.01500453323680579</v>
       </c>
       <c r="E9">
-        <v>-0.05447558562043663</v>
+        <v>0.001307638706992775</v>
       </c>
       <c r="F9">
-        <v>-0.02958375859688844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01931650707276782</v>
+      </c>
+      <c r="G9">
+        <v>-0.02809492507126793</v>
+      </c>
+      <c r="H9">
+        <v>0.002775001382604542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.07457716155956906</v>
+        <v>-0.08817999934825496</v>
       </c>
       <c r="C10">
-        <v>0.02581910372178819</v>
+        <v>0.1802084773778057</v>
       </c>
       <c r="D10">
-        <v>0.1662906085843832</v>
+        <v>-0.01952046190423327</v>
       </c>
       <c r="E10">
-        <v>-0.01877861756741132</v>
+        <v>-0.01690340235648188</v>
       </c>
       <c r="F10">
-        <v>0.002623499160355252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01269933909291193</v>
+      </c>
+      <c r="G10">
+        <v>-0.03547870107871916</v>
+      </c>
+      <c r="H10">
+        <v>0.02643723599175258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02873132180810434</v>
+        <v>-0.03501964128216102</v>
       </c>
       <c r="C11">
-        <v>5.048397423186013e-05</v>
+        <v>-0.05361428296590726</v>
       </c>
       <c r="D11">
-        <v>-0.04252356489007145</v>
+        <v>0.0006496702893412544</v>
       </c>
       <c r="E11">
-        <v>-0.01678523301426216</v>
+        <v>0.007292639275296813</v>
       </c>
       <c r="F11">
-        <v>-0.02460839554445124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02709558198663178</v>
+      </c>
+      <c r="G11">
+        <v>-0.007504248559309557</v>
+      </c>
+      <c r="H11">
+        <v>-0.000521440621769307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03626100463840119</v>
+        <v>-0.03493999664976212</v>
       </c>
       <c r="C12">
-        <v>-0.007587985483681428</v>
+        <v>-0.04701983456788814</v>
       </c>
       <c r="D12">
-        <v>-0.04069350895333238</v>
+        <v>0.005023897301269882</v>
       </c>
       <c r="E12">
-        <v>0.008070253505384532</v>
+        <v>0.01260458217974162</v>
       </c>
       <c r="F12">
-        <v>-0.002966043830350467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.007299621034566542</v>
+      </c>
+      <c r="G12">
+        <v>-0.0128565617191155</v>
+      </c>
+      <c r="H12">
+        <v>0.002759321642609797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02101263407684273</v>
+        <v>-0.01141488195579942</v>
       </c>
       <c r="C13">
-        <v>0.001163658436691494</v>
+        <v>-0.03147961806965938</v>
       </c>
       <c r="D13">
-        <v>-0.01599511569583165</v>
+        <v>0.02417752344638931</v>
       </c>
       <c r="E13">
-        <v>-0.04379116204228883</v>
+        <v>-0.01731413001650972</v>
       </c>
       <c r="F13">
-        <v>-0.01882225662428921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03205411904184394</v>
+      </c>
+      <c r="G13">
+        <v>-0.02272582228389691</v>
+      </c>
+      <c r="H13">
+        <v>-0.01420979243331485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0150714285691015</v>
+        <v>-0.008859715208423496</v>
       </c>
       <c r="C14">
-        <v>-0.01479721485447032</v>
+        <v>-0.02610007798723169</v>
       </c>
       <c r="D14">
-        <v>-0.008011886015948592</v>
+        <v>0.008051013230813229</v>
       </c>
       <c r="E14">
-        <v>-0.02024152479189945</v>
+        <v>0.006993527646086857</v>
       </c>
       <c r="F14">
-        <v>0.01841917763201537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.002255114847560901</v>
+      </c>
+      <c r="G14">
+        <v>-0.03157727232668059</v>
+      </c>
+      <c r="H14">
+        <v>-0.01832317742239658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02715550972158903</v>
+        <v>-0.03103725624945511</v>
       </c>
       <c r="C16">
-        <v>-0.005738281016930211</v>
+        <v>-0.04240897363820126</v>
       </c>
       <c r="D16">
-        <v>-0.03996829595778752</v>
+        <v>0.000398323809772693</v>
       </c>
       <c r="E16">
-        <v>-0.01730581121056041</v>
+        <v>0.004470285996177627</v>
       </c>
       <c r="F16">
-        <v>-0.02967199900046924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01458132181922834</v>
+      </c>
+      <c r="G16">
+        <v>-0.01255897768599467</v>
+      </c>
+      <c r="H16">
+        <v>-0.002882599047428679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02655299527781188</v>
+        <v>-0.02678942839234419</v>
       </c>
       <c r="C19">
-        <v>-0.003745489943343173</v>
+        <v>-0.05359929133542475</v>
       </c>
       <c r="D19">
-        <v>-0.03595450565905915</v>
+        <v>0.01459685302023817</v>
       </c>
       <c r="E19">
-        <v>-0.0531860113375365</v>
+        <v>-0.03189653105657946</v>
       </c>
       <c r="F19">
-        <v>-0.04179881285602144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.04353056817315148</v>
+      </c>
+      <c r="G19">
+        <v>-0.03287808382916328</v>
+      </c>
+      <c r="H19">
+        <v>-0.03774896889479708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.004923146526225306</v>
+        <v>-0.01031018262992347</v>
       </c>
       <c r="C20">
-        <v>-0.002227869734040105</v>
+        <v>-0.03542557603824566</v>
       </c>
       <c r="D20">
-        <v>0.002082452592175205</v>
+        <v>0.01271921503708747</v>
       </c>
       <c r="E20">
-        <v>-0.03032337161487311</v>
+        <v>-0.01636141950575976</v>
       </c>
       <c r="F20">
-        <v>0.006167297865813171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01147641320238423</v>
+      </c>
+      <c r="G20">
+        <v>-0.02278277986060684</v>
+      </c>
+      <c r="H20">
+        <v>-0.01299871416624948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03748696480323434</v>
+        <v>-0.01116903228095023</v>
       </c>
       <c r="C21">
-        <v>-0.02410422136771231</v>
+        <v>-0.03386929780986776</v>
       </c>
       <c r="D21">
-        <v>-0.01396012555921992</v>
+        <v>0.01557568114970805</v>
       </c>
       <c r="E21">
-        <v>-0.02577363198119618</v>
+        <v>-0.02211284550124005</v>
       </c>
       <c r="F21">
-        <v>-0.02080790345785731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0218883453820614</v>
+      </c>
+      <c r="G21">
+        <v>-0.04594305507384956</v>
+      </c>
+      <c r="H21">
+        <v>-0.01715486933970379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02645487853336497</v>
+        <v>-0.0250591433985326</v>
       </c>
       <c r="C24">
-        <v>-0.003179939442848011</v>
+        <v>-0.04591570709536066</v>
       </c>
       <c r="D24">
-        <v>-0.03273634071713386</v>
+        <v>0.005692697642271418</v>
       </c>
       <c r="E24">
-        <v>-0.01523662848186646</v>
+        <v>0.009675498034719112</v>
       </c>
       <c r="F24">
-        <v>-0.02391666918873256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02219373349235238</v>
+      </c>
+      <c r="G24">
+        <v>-0.01095385746986257</v>
+      </c>
+      <c r="H24">
+        <v>0.003286881913346785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04068404152341828</v>
+        <v>-0.04299079430366971</v>
       </c>
       <c r="C25">
-        <v>-0.001142691874306979</v>
+        <v>-0.05237346798333707</v>
       </c>
       <c r="D25">
-        <v>-0.03205331359400954</v>
+        <v>0.009416367568215791</v>
       </c>
       <c r="E25">
-        <v>-0.0284343136284388</v>
+        <v>0.01697598194369706</v>
       </c>
       <c r="F25">
-        <v>-0.02981664987379902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.018213503475678</v>
+      </c>
+      <c r="G25">
+        <v>-0.01583409994961357</v>
+      </c>
+      <c r="H25">
+        <v>-0.006026182688414589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.002614948483634473</v>
+        <v>-0.002162689562346355</v>
       </c>
       <c r="C26">
-        <v>-0.008646853724815421</v>
+        <v>-0.00837445035943722</v>
       </c>
       <c r="D26">
-        <v>0.001663525276545305</v>
+        <v>0.02385902309083493</v>
       </c>
       <c r="E26">
-        <v>-0.03192319323473002</v>
+        <v>-0.003313502598405272</v>
       </c>
       <c r="F26">
-        <v>0.01879070750149488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.007464863237586189</v>
+      </c>
+      <c r="G26">
+        <v>-0.02147829975763615</v>
+      </c>
+      <c r="H26">
+        <v>-0.009447248817739057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1119595433943158</v>
+        <v>-0.1134085447736421</v>
       </c>
       <c r="C28">
-        <v>0.035664587057889</v>
+        <v>0.2217816388099716</v>
       </c>
       <c r="D28">
-        <v>0.2332398556068112</v>
+        <v>-0.01105864758662212</v>
       </c>
       <c r="E28">
-        <v>-0.006565601551127503</v>
+        <v>-0.009478055820581683</v>
       </c>
       <c r="F28">
-        <v>0.008833048190379699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01215538209458563</v>
+      </c>
+      <c r="G28">
+        <v>-0.05021554905816892</v>
+      </c>
+      <c r="H28">
+        <v>0.01102429088260777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01483815668362547</v>
+        <v>-0.0133906764360969</v>
       </c>
       <c r="C29">
-        <v>-0.01118483534606973</v>
+        <v>-0.02097238114066658</v>
       </c>
       <c r="D29">
-        <v>-0.01030612567028209</v>
+        <v>0.006849084314834223</v>
       </c>
       <c r="E29">
-        <v>-0.02016749451331118</v>
+        <v>0.005032470005349834</v>
       </c>
       <c r="F29">
-        <v>0.01726811239120173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.004194379990277457</v>
+      </c>
+      <c r="G29">
+        <v>-0.02469636573575829</v>
+      </c>
+      <c r="H29">
+        <v>-0.0237834384236197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05050188256702437</v>
+        <v>-0.03681736256341251</v>
       </c>
       <c r="C30">
-        <v>0.04690357810134598</v>
+        <v>-0.07309268407749478</v>
       </c>
       <c r="D30">
-        <v>-0.06955232575328826</v>
+        <v>0.02676606893161208</v>
       </c>
       <c r="E30">
-        <v>-0.06740154948331484</v>
+        <v>-0.01639699773248455</v>
       </c>
       <c r="F30">
-        <v>-0.01048269178666797</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04659826095348016</v>
+      </c>
+      <c r="G30">
+        <v>0.01317104349330025</v>
+      </c>
+      <c r="H30">
+        <v>-0.01238646418624185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04801912028428444</v>
+        <v>-0.04148176387580386</v>
       </c>
       <c r="C31">
-        <v>-0.01480086795911941</v>
+        <v>-0.02869565373422467</v>
       </c>
       <c r="D31">
-        <v>-0.01693406961569812</v>
+        <v>0.002464204112527917</v>
       </c>
       <c r="E31">
-        <v>0.001244203624502342</v>
+        <v>0.01778339995882109</v>
       </c>
       <c r="F31">
-        <v>0.0128253585078785</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02768237523568466</v>
+      </c>
+      <c r="G31">
+        <v>-0.02462573380981004</v>
+      </c>
+      <c r="H31">
+        <v>-0.004786001943934025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0001654945563105939</v>
+        <v>-0.006712168903036059</v>
       </c>
       <c r="C32">
-        <v>-0.03018331604882321</v>
+        <v>-0.03519760700989417</v>
       </c>
       <c r="D32">
-        <v>-0.02265717116184757</v>
+        <v>-0.005377269390152456</v>
       </c>
       <c r="E32">
-        <v>-0.01701278076935602</v>
+        <v>-0.01340353334944557</v>
       </c>
       <c r="F32">
-        <v>-0.01329423814016289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07464100515474881</v>
+      </c>
+      <c r="G32">
+        <v>-0.04930228714467064</v>
+      </c>
+      <c r="H32">
+        <v>-0.06803675937095194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03409137546083363</v>
+        <v>-0.02843280364515801</v>
       </c>
       <c r="C33">
-        <v>0.01754106908649019</v>
+        <v>-0.05053268741986826</v>
       </c>
       <c r="D33">
-        <v>-0.03442723507964661</v>
+        <v>0.01342142264648657</v>
       </c>
       <c r="E33">
-        <v>-0.04347044518794455</v>
+        <v>-0.0139731825509582</v>
       </c>
       <c r="F33">
-        <v>0.01670714772227662</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02493040378994364</v>
+      </c>
+      <c r="G33">
+        <v>-0.01425010430111095</v>
+      </c>
+      <c r="H33">
+        <v>0.01325902765852973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02902975343939174</v>
+        <v>-0.0456132556691495</v>
       </c>
       <c r="C34">
-        <v>-0.01444109890680316</v>
+        <v>-0.05364457959212005</v>
       </c>
       <c r="D34">
-        <v>-0.04193768511708978</v>
+        <v>-0.006815421616626371</v>
       </c>
       <c r="E34">
-        <v>-0.01626987328694656</v>
+        <v>0.01710858407721623</v>
       </c>
       <c r="F34">
-        <v>-0.02848883719817859</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02372907538666491</v>
+      </c>
+      <c r="G34">
+        <v>-0.02101902307320198</v>
+      </c>
+      <c r="H34">
+        <v>-0.001471400235384491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01681439671384369</v>
+        <v>-0.01023414400208031</v>
       </c>
       <c r="C36">
-        <v>-0.004070316417656836</v>
+        <v>-0.005680611438980782</v>
       </c>
       <c r="D36">
-        <v>0.0005101890731637721</v>
+        <v>0.01091118522518209</v>
       </c>
       <c r="E36">
-        <v>-0.01770896203506402</v>
+        <v>0.001688329409446871</v>
       </c>
       <c r="F36">
-        <v>0.0003110692298349105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0003685122988291059</v>
+      </c>
+      <c r="G36">
+        <v>-0.01445351084900112</v>
+      </c>
+      <c r="H36">
+        <v>0.0005704996437835763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02209978090102714</v>
+        <v>-0.03012376341349692</v>
       </c>
       <c r="C38">
-        <v>-0.0002449526864014793</v>
+        <v>-0.02116770163473094</v>
       </c>
       <c r="D38">
-        <v>-0.01050881596724142</v>
+        <v>-0.008626880151184107</v>
       </c>
       <c r="E38">
-        <v>-0.04058562196702438</v>
+        <v>0.004820939862942951</v>
       </c>
       <c r="F38">
-        <v>-0.002054801757485351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.008496296446913475</v>
+      </c>
+      <c r="G38">
+        <v>-0.02197985152428878</v>
+      </c>
+      <c r="H38">
+        <v>-0.008069183855378524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02191786841810707</v>
+        <v>-0.02969379114203692</v>
       </c>
       <c r="C39">
-        <v>-0.01222730637096151</v>
+        <v>-0.08425421926861486</v>
       </c>
       <c r="D39">
-        <v>-0.06538892357105046</v>
+        <v>0.01118419909490409</v>
       </c>
       <c r="E39">
-        <v>-0.04882085793362558</v>
+        <v>-0.005072048943081877</v>
       </c>
       <c r="F39">
-        <v>-0.04010691042044574</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04291033381228111</v>
+      </c>
+      <c r="G39">
+        <v>-0.01291136180872651</v>
+      </c>
+      <c r="H39">
+        <v>0.01121721953024597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02868323345451773</v>
+        <v>-0.01944142600107301</v>
       </c>
       <c r="C40">
-        <v>-0.0009385814349719353</v>
+        <v>-0.03228280625410307</v>
       </c>
       <c r="D40">
-        <v>-0.04044289077359666</v>
+        <v>0.01251789542515934</v>
       </c>
       <c r="E40">
-        <v>-0.03677190758809686</v>
+        <v>-0.01005087455220999</v>
       </c>
       <c r="F40">
-        <v>-0.04030143455115236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02595402146754837</v>
+      </c>
+      <c r="G40">
+        <v>-0.01368178252819377</v>
+      </c>
+      <c r="H40">
+        <v>-0.003092737921037474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01093443226143046</v>
+        <v>-0.01081279098687168</v>
       </c>
       <c r="C41">
-        <v>0.001188830373619273</v>
+        <v>0.002742368566180009</v>
       </c>
       <c r="D41">
-        <v>0.009965264388781019</v>
+        <v>0.002981099335809824</v>
       </c>
       <c r="E41">
-        <v>-0.005534454855854929</v>
+        <v>0.009064924234830466</v>
       </c>
       <c r="F41">
-        <v>0.002608711457062392</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0002711366807657688</v>
+      </c>
+      <c r="G41">
+        <v>-0.009569230242343406</v>
+      </c>
+      <c r="H41">
+        <v>-0.004795786966588333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.1519915068195689</v>
+        <v>-0.03992912474960935</v>
       </c>
       <c r="C42">
-        <v>0.09338673138805685</v>
+        <v>-0.06002787148469252</v>
       </c>
       <c r="D42">
-        <v>-0.1225390140962672</v>
+        <v>0.1045166457315449</v>
       </c>
       <c r="E42">
-        <v>-0.1857830530424094</v>
+        <v>-0.07986218870789288</v>
       </c>
       <c r="F42">
-        <v>0.1561085901497029</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1342003674700275</v>
+      </c>
+      <c r="G42">
+        <v>0.2235595130098599</v>
+      </c>
+      <c r="H42">
+        <v>0.9265252674365676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01730689783285835</v>
+        <v>-0.02680620169569013</v>
       </c>
       <c r="C43">
-        <v>0.00326488509916313</v>
+        <v>-0.006845762199792445</v>
       </c>
       <c r="D43">
-        <v>0.006715201712498423</v>
+        <v>0.002860835715049686</v>
       </c>
       <c r="E43">
-        <v>-0.009168536657662669</v>
+        <v>0.006311320854261231</v>
       </c>
       <c r="F43">
-        <v>0.007863125937091577</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003044190953306507</v>
+      </c>
+      <c r="G43">
+        <v>-0.01145602574205284</v>
+      </c>
+      <c r="H43">
+        <v>-0.003899014241459955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01086029931852697</v>
+        <v>-0.01621717733981477</v>
       </c>
       <c r="C44">
-        <v>-0.009936981890878889</v>
+        <v>-0.04957732394309435</v>
       </c>
       <c r="D44">
-        <v>-0.01398836219254456</v>
+        <v>0.006449948983084005</v>
       </c>
       <c r="E44">
-        <v>-0.07225441639181213</v>
+        <v>-0.01581388964386823</v>
       </c>
       <c r="F44">
-        <v>-0.004807535320452113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02672912596059787</v>
+      </c>
+      <c r="G44">
+        <v>-0.02957191881462698</v>
+      </c>
+      <c r="H44">
+        <v>0.01278021354878257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.009830418297612661</v>
+        <v>-0.001554221061267432</v>
       </c>
       <c r="C46">
-        <v>-0.004589473354945894</v>
+        <v>-0.01699424380418866</v>
       </c>
       <c r="D46">
-        <v>-0.02762289842819319</v>
+        <v>0.01125521224749661</v>
       </c>
       <c r="E46">
-        <v>-0.03984610905252668</v>
+        <v>0.006907143631894216</v>
       </c>
       <c r="F46">
-        <v>0.01762734746602718</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.007675829058503404</v>
+      </c>
+      <c r="G46">
+        <v>-0.01694672069536319</v>
+      </c>
+      <c r="H46">
+        <v>-0.02633203898483065</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07231024463529126</v>
+        <v>-0.07048390382392972</v>
       </c>
       <c r="C47">
-        <v>-0.002043955208471483</v>
+        <v>-0.06046296469243862</v>
       </c>
       <c r="D47">
-        <v>-0.02957646763155426</v>
+        <v>-0.005604173992258672</v>
       </c>
       <c r="E47">
-        <v>0.03575466077655674</v>
+        <v>0.02111456985248786</v>
       </c>
       <c r="F47">
-        <v>0.03908147825749438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.06002418167377725</v>
+      </c>
+      <c r="G47">
+        <v>-0.01450634160920274</v>
+      </c>
+      <c r="H47">
+        <v>-0.00674192858338685</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02702611428994377</v>
+        <v>-0.01463546536453355</v>
       </c>
       <c r="C48">
-        <v>-0.004236105842292365</v>
+        <v>-0.009808680227782226</v>
       </c>
       <c r="D48">
-        <v>-0.004362718184783334</v>
+        <v>0.0007162378687420705</v>
       </c>
       <c r="E48">
-        <v>-0.01838240977881985</v>
+        <v>0.00708480233033924</v>
       </c>
       <c r="F48">
-        <v>-0.002630917413342692</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01396014144255836</v>
+      </c>
+      <c r="G48">
+        <v>-0.01636621124833665</v>
+      </c>
+      <c r="H48">
+        <v>-0.003319356162967487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07344465507015042</v>
+        <v>-0.07419273336118852</v>
       </c>
       <c r="C50">
-        <v>-0.03222956123966385</v>
+        <v>-0.0620524615477485</v>
       </c>
       <c r="D50">
-        <v>-0.0427447618069016</v>
+        <v>-0.004466419214065633</v>
       </c>
       <c r="E50">
-        <v>0.006484250989102742</v>
+        <v>0.02118444445173331</v>
       </c>
       <c r="F50">
-        <v>0.06313718852314042</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.05714060977154983</v>
+      </c>
+      <c r="G50">
+        <v>-0.03882783011131952</v>
+      </c>
+      <c r="H50">
+        <v>-0.008824893377718721</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01539929490855316</v>
+        <v>-0.01741640816653334</v>
       </c>
       <c r="C51">
-        <v>-0.00607668629507286</v>
+        <v>-0.02941842870694549</v>
       </c>
       <c r="D51">
-        <v>0.01785666662505466</v>
+        <v>0.008402836816425787</v>
       </c>
       <c r="E51">
-        <v>-0.05814858587712223</v>
+        <v>-0.007042624364107131</v>
       </c>
       <c r="F51">
-        <v>-0.01037596397745448</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03641019869070104</v>
+      </c>
+      <c r="G51">
+        <v>-0.03658901499400966</v>
+      </c>
+      <c r="H51">
+        <v>-0.008127323866923815</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09530431024897665</v>
+        <v>-0.09645072520300721</v>
       </c>
       <c r="C53">
-        <v>-0.01964548297598095</v>
+        <v>-0.07545540489493692</v>
       </c>
       <c r="D53">
-        <v>-0.06045160664589638</v>
+        <v>-0.00678853648817197</v>
       </c>
       <c r="E53">
-        <v>0.0578437410871534</v>
+        <v>0.0417971897977437</v>
       </c>
       <c r="F53">
-        <v>0.02586293795969581</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06849157384382022</v>
+      </c>
+      <c r="G53">
+        <v>-0.01588042070057731</v>
+      </c>
+      <c r="H53">
+        <v>0.00217944388018971</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02736544585982792</v>
+        <v>-0.02897958201068607</v>
       </c>
       <c r="C54">
-        <v>-0.008689961625652486</v>
+        <v>-0.005146043335547355</v>
       </c>
       <c r="D54">
-        <v>-0.0004189229278483046</v>
+        <v>-0.004830273052977682</v>
       </c>
       <c r="E54">
-        <v>-0.00405006590187249</v>
+        <v>0.001078470892726041</v>
       </c>
       <c r="F54">
-        <v>0.002937311491267662</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.003677552507999972</v>
+      </c>
+      <c r="G54">
+        <v>-0.02489860879727023</v>
+      </c>
+      <c r="H54">
+        <v>-0.02171001854571677</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0691623081009097</v>
+        <v>-0.07169953814595992</v>
       </c>
       <c r="C55">
-        <v>-0.01241482322148275</v>
+        <v>-0.06864824569175611</v>
       </c>
       <c r="D55">
-        <v>-0.07367169178268536</v>
+        <v>-0.0055919369714984</v>
       </c>
       <c r="E55">
-        <v>0.03629367955103723</v>
+        <v>0.03095718627391357</v>
       </c>
       <c r="F55">
-        <v>0.04900013960089093</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.06277960988897292</v>
+      </c>
+      <c r="G55">
+        <v>-0.005003129250197643</v>
+      </c>
+      <c r="H55">
+        <v>-0.003922016702755809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1353677899704309</v>
+        <v>-0.1458568162164583</v>
       </c>
       <c r="C56">
-        <v>-0.0150210906980863</v>
+        <v>-0.09848374500104852</v>
       </c>
       <c r="D56">
-        <v>-0.08605348621740869</v>
+        <v>-0.01589517402633914</v>
       </c>
       <c r="E56">
-        <v>0.09011329567431885</v>
+        <v>0.04481062211047607</v>
       </c>
       <c r="F56">
-        <v>0.02226825160472298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1058663477513905</v>
+      </c>
+      <c r="G56">
+        <v>0.006623523709160927</v>
+      </c>
+      <c r="H56">
+        <v>0.002066296721674193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04139522624222852</v>
+        <v>-0.01588339383768762</v>
       </c>
       <c r="C57">
-        <v>0.005860996936118608</v>
+        <v>-0.01158783533902962</v>
       </c>
       <c r="D57">
-        <v>-0.01864185574894848</v>
+        <v>0.02352116111002444</v>
       </c>
       <c r="E57">
-        <v>-0.04127920793695594</v>
+        <v>-0.03133445681791243</v>
       </c>
       <c r="F57">
-        <v>-0.01203626578056514</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01658887690128237</v>
+      </c>
+      <c r="G57">
+        <v>-0.02214778548822577</v>
+      </c>
+      <c r="H57">
+        <v>0.004614885270349743</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1828435145498821</v>
+        <v>-0.07384196858268378</v>
       </c>
       <c r="C58">
-        <v>0.1255560349554423</v>
+        <v>-0.08757321038357876</v>
       </c>
       <c r="D58">
-        <v>-0.1457751703066811</v>
+        <v>0.02026712381537208</v>
       </c>
       <c r="E58">
-        <v>-0.595221589780669</v>
+        <v>-0.9457749486225669</v>
       </c>
       <c r="F58">
-        <v>0.5632348150990778</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2187492298703523</v>
+      </c>
+      <c r="G58">
+        <v>-0.06453035620870802</v>
+      </c>
+      <c r="H58">
+        <v>-0.1004358629388065</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1155504570380181</v>
+        <v>-0.1528931595223486</v>
       </c>
       <c r="C59">
-        <v>0.0549698302544108</v>
+        <v>0.2142231108056443</v>
       </c>
       <c r="D59">
-        <v>0.1930914741373197</v>
+        <v>-0.01868480879046419</v>
       </c>
       <c r="E59">
-        <v>-0.0426431640122875</v>
+        <v>-0.01633500679262326</v>
       </c>
       <c r="F59">
-        <v>-0.06052847368716251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01197322367153024</v>
+      </c>
+      <c r="G59">
+        <v>-0.02021745025205768</v>
+      </c>
+      <c r="H59">
+        <v>-0.003572681261882397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2154807559170629</v>
+        <v>-0.2926017175103206</v>
       </c>
       <c r="C60">
-        <v>0.0447160283324232</v>
+        <v>-0.08276522324893446</v>
       </c>
       <c r="D60">
-        <v>0.005536127173779792</v>
+        <v>0.004180196097176306</v>
       </c>
       <c r="E60">
-        <v>-0.1576125345024868</v>
+        <v>-0.01695206579493713</v>
       </c>
       <c r="F60">
-        <v>-0.3918132662484741</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3898223647372924</v>
+      </c>
+      <c r="G60">
+        <v>0.04341866212847952</v>
+      </c>
+      <c r="H60">
+        <v>-0.04906704958424289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03443633897856227</v>
+        <v>-0.03095036691290079</v>
       </c>
       <c r="C61">
-        <v>-0.006337007632717412</v>
+        <v>-0.06516152831868489</v>
       </c>
       <c r="D61">
-        <v>-0.05412946062391575</v>
+        <v>0.00454991308049957</v>
       </c>
       <c r="E61">
-        <v>-0.03148958261161539</v>
+        <v>0.0002784709705460704</v>
       </c>
       <c r="F61">
-        <v>-0.05346379301696776</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02877816893329297</v>
+      </c>
+      <c r="G61">
+        <v>-0.01509380779089581</v>
+      </c>
+      <c r="H61">
+        <v>-0.00253779395363257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01791331378760756</v>
+        <v>-0.01302124995519698</v>
       </c>
       <c r="C63">
-        <v>-0.007868018444538846</v>
+        <v>-0.02890003210615005</v>
       </c>
       <c r="D63">
-        <v>-0.0218278304819267</v>
+        <v>0.007434266867806745</v>
       </c>
       <c r="E63">
-        <v>-0.004739632327090186</v>
+        <v>0.01658715114142139</v>
       </c>
       <c r="F63">
-        <v>0.02362302048758023</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.004992153125884582</v>
+      </c>
+      <c r="G63">
+        <v>-0.01999403139964095</v>
+      </c>
+      <c r="H63">
+        <v>-0.006754031561697019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05125114847316784</v>
+        <v>-0.04708440666399828</v>
       </c>
       <c r="C64">
-        <v>-0.004365956532995227</v>
+        <v>-0.03721420736375815</v>
       </c>
       <c r="D64">
-        <v>-0.03558300572300779</v>
+        <v>0.003854330118668684</v>
       </c>
       <c r="E64">
-        <v>-0.01487424153607636</v>
+        <v>0.01818622531313002</v>
       </c>
       <c r="F64">
-        <v>-0.01670597070794586</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01556247673959911</v>
+      </c>
+      <c r="G64">
+        <v>-0.01157652046230822</v>
+      </c>
+      <c r="H64">
+        <v>0.03042890810689286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.07087205816810065</v>
+        <v>-0.07565179943194322</v>
       </c>
       <c r="C65">
-        <v>-0.01059019734486925</v>
+        <v>-0.06810215375099503</v>
       </c>
       <c r="D65">
-        <v>-0.05019786083514564</v>
+        <v>0.01463911272180468</v>
       </c>
       <c r="E65">
-        <v>-0.02437848581499421</v>
+        <v>0.00209764068187606</v>
       </c>
       <c r="F65">
-        <v>-0.05724025077818278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04129404990213468</v>
+      </c>
+      <c r="G65">
+        <v>-0.007799844616022185</v>
+      </c>
+      <c r="H65">
+        <v>-0.01387458673554334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04605476187442111</v>
+        <v>-0.05065284635347845</v>
       </c>
       <c r="C66">
-        <v>0.005079686992376627</v>
+        <v>-0.1190345709883631</v>
       </c>
       <c r="D66">
-        <v>-0.08193283925513624</v>
+        <v>0.01025143156074756</v>
       </c>
       <c r="E66">
-        <v>-0.02874763759863479</v>
+        <v>-0.005100623740037</v>
       </c>
       <c r="F66">
-        <v>-0.05201024760977511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.05058195532317242</v>
+      </c>
+      <c r="G66">
+        <v>-0.001821470286323946</v>
+      </c>
+      <c r="H66">
+        <v>-0.01031303426165174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03898077259227373</v>
+        <v>-0.05647840184854937</v>
       </c>
       <c r="C67">
-        <v>0.002511393695642322</v>
+        <v>-0.02321042830321757</v>
       </c>
       <c r="D67">
-        <v>-0.01069118367495788</v>
+        <v>-0.007798769698877776</v>
       </c>
       <c r="E67">
-        <v>-0.02012160974304544</v>
+        <v>0.01055810169105474</v>
       </c>
       <c r="F67">
-        <v>-0.01179472169891283</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.006271816264859715</v>
+      </c>
+      <c r="G67">
+        <v>-0.02134538780955502</v>
+      </c>
+      <c r="H67">
+        <v>-0.01310595216450791</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09861747912342762</v>
+        <v>-0.1241119609888779</v>
       </c>
       <c r="C68">
-        <v>0.05240993275881674</v>
+        <v>0.2648029747882735</v>
       </c>
       <c r="D68">
-        <v>0.214351105131939</v>
+        <v>0.0002569301619941663</v>
       </c>
       <c r="E68">
-        <v>-0.004617550617157093</v>
+        <v>-0.016168368490589</v>
       </c>
       <c r="F68">
-        <v>-0.008212248181703614</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01833149269970881</v>
+      </c>
+      <c r="G68">
+        <v>-0.01915440452090417</v>
+      </c>
+      <c r="H68">
+        <v>0.01413665118826617</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05300527075672005</v>
+        <v>-0.07348402928008924</v>
       </c>
       <c r="C69">
-        <v>-0.003890128132114887</v>
+        <v>-0.05762469079613664</v>
       </c>
       <c r="D69">
-        <v>-0.03868180195084391</v>
+        <v>-0.01044048291023921</v>
       </c>
       <c r="E69">
-        <v>0.02500619595722258</v>
+        <v>0.03677128970866737</v>
       </c>
       <c r="F69">
-        <v>0.01106889198341514</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.03538423098232076</v>
+      </c>
+      <c r="G69">
+        <v>-0.0108378938395184</v>
+      </c>
+      <c r="H69">
+        <v>-0.02062500295444717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.09147320358189302</v>
+        <v>-0.1254327954905853</v>
       </c>
       <c r="C71">
-        <v>0.03921236957742707</v>
+        <v>0.223350035609414</v>
       </c>
       <c r="D71">
-        <v>0.2161462607124925</v>
+        <v>-0.008833316764121782</v>
       </c>
       <c r="E71">
-        <v>-0.01869643540132085</v>
+        <v>-0.02173438476261276</v>
       </c>
       <c r="F71">
-        <v>0.03928838725538399</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02361238514123365</v>
+      </c>
+      <c r="G71">
+        <v>-0.03255532207276113</v>
+      </c>
+      <c r="H71">
+        <v>0.0264480812320029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1290758666309271</v>
+        <v>-0.08087883846465073</v>
       </c>
       <c r="C72">
-        <v>0.001264880489083876</v>
+        <v>-0.08396795638914341</v>
       </c>
       <c r="D72">
-        <v>-0.130434701599032</v>
+        <v>-0.00985697486655765</v>
       </c>
       <c r="E72">
-        <v>-0.1226383103710948</v>
+        <v>0.02157060366494663</v>
       </c>
       <c r="F72">
-        <v>-0.191865465255026</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.03898679574101319</v>
+      </c>
+      <c r="G72">
+        <v>0.006231470739811166</v>
+      </c>
+      <c r="H72">
+        <v>-0.01198431217220344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.266399025212409</v>
+        <v>-0.3950504605090042</v>
       </c>
       <c r="C73">
-        <v>0.1034659727229803</v>
+        <v>-0.1003751345158865</v>
       </c>
       <c r="D73">
-        <v>-0.03433647406318121</v>
+        <v>0.008373364701199084</v>
       </c>
       <c r="E73">
-        <v>-0.2366434126201474</v>
+        <v>-0.06949402806003076</v>
       </c>
       <c r="F73">
-        <v>-0.3973888381074079</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5346306344852293</v>
+      </c>
+      <c r="G73">
+        <v>0.08886624574079428</v>
+      </c>
+      <c r="H73">
+        <v>0.06724176088003307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1235843503466007</v>
+        <v>-0.1151619196601384</v>
       </c>
       <c r="C74">
-        <v>-0.006023181884390709</v>
+        <v>-0.1172034701555367</v>
       </c>
       <c r="D74">
-        <v>-0.08909759781266205</v>
+        <v>-0.01117757994616091</v>
       </c>
       <c r="E74">
-        <v>0.07615899863615912</v>
+        <v>0.04293921063199557</v>
       </c>
       <c r="F74">
-        <v>0.009507691261181592</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0728028538150688</v>
+      </c>
+      <c r="G74">
+        <v>-0.007565718243126221</v>
+      </c>
+      <c r="H74">
+        <v>0.001935132810813832</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2554484189754945</v>
+        <v>-0.2572107890724444</v>
       </c>
       <c r="C75">
-        <v>-0.001600365594708659</v>
+        <v>-0.1440592542089864</v>
       </c>
       <c r="D75">
-        <v>-0.141939089159709</v>
+        <v>-0.03246491044250834</v>
       </c>
       <c r="E75">
-        <v>0.1601404615932426</v>
+        <v>0.06117202797601602</v>
       </c>
       <c r="F75">
-        <v>0.0201844998281906</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.21745730936417</v>
+      </c>
+      <c r="G75">
+        <v>0.03338415037177425</v>
+      </c>
+      <c r="H75">
+        <v>-0.002448269241367711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2376966323709515</v>
+        <v>-0.1477055946498499</v>
       </c>
       <c r="C76">
-        <v>-0.02430571460837945</v>
+        <v>-0.1245653826900676</v>
       </c>
       <c r="D76">
-        <v>-0.1438471642340783</v>
+        <v>-0.02447589995293021</v>
       </c>
       <c r="E76">
-        <v>0.2236405910239936</v>
+        <v>0.07251055100497182</v>
       </c>
       <c r="F76">
-        <v>0.04288946524080302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1451275595823866</v>
+      </c>
+      <c r="G76">
+        <v>0.001974316971517006</v>
+      </c>
+      <c r="H76">
+        <v>-0.009410602051714442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.05486757182453367</v>
+        <v>-0.05870279712650403</v>
       </c>
       <c r="C77">
-        <v>0.002584843212880452</v>
+        <v>-0.06402646408998099</v>
       </c>
       <c r="D77">
-        <v>-0.04373413115748555</v>
+        <v>0.01099453854103105</v>
       </c>
       <c r="E77">
-        <v>-0.06397642481952254</v>
+        <v>-0.02894947745948195</v>
       </c>
       <c r="F77">
-        <v>0.1080542502515442</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.00933571024645591</v>
+      </c>
+      <c r="G77">
+        <v>-0.03007288858122647</v>
+      </c>
+      <c r="H77">
+        <v>0.001249605669368236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03437603796211237</v>
+        <v>-0.04301966496869072</v>
       </c>
       <c r="C78">
-        <v>-0.008718500939482066</v>
+        <v>-0.05443384402814388</v>
       </c>
       <c r="D78">
-        <v>-0.04262350562500082</v>
+        <v>0.004677572284449347</v>
       </c>
       <c r="E78">
-        <v>-0.06493167364572144</v>
+        <v>-0.01537665538650879</v>
       </c>
       <c r="F78">
-        <v>-0.03698128482278362</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04675632030358058</v>
+      </c>
+      <c r="G78">
+        <v>-0.02472760702585534</v>
+      </c>
+      <c r="H78">
+        <v>-0.0134205095261805</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1927417830450846</v>
+        <v>-0.06547785105578123</v>
       </c>
       <c r="C80">
-        <v>-0.9401953204724919</v>
+        <v>-0.08256487935821423</v>
       </c>
       <c r="D80">
-        <v>0.169692774742098</v>
+        <v>0.01283010502611748</v>
       </c>
       <c r="E80">
-        <v>-0.1267392863283558</v>
+        <v>0.07264628774258039</v>
       </c>
       <c r="F80">
-        <v>0.02762958363930621</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02178181024620306</v>
+      </c>
+      <c r="G80">
+        <v>-0.9270012676166284</v>
+      </c>
+      <c r="H80">
+        <v>0.2177197601472909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1945410651979587</v>
+        <v>-0.1498070960542301</v>
       </c>
       <c r="C81">
-        <v>-0.01251924028177032</v>
+        <v>-0.09215728791838387</v>
       </c>
       <c r="D81">
-        <v>-0.1067604206780622</v>
+        <v>-0.01854970168055858</v>
       </c>
       <c r="E81">
-        <v>0.1227918766836914</v>
+        <v>0.04584932633091594</v>
       </c>
       <c r="F81">
-        <v>0.05760645154185713</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1401479395261838</v>
+      </c>
+      <c r="G81">
+        <v>-0.004702090361818853</v>
+      </c>
+      <c r="H81">
+        <v>-0.008827742734574663</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.03596093739158112</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02424598314074546</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002246514320998867</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01972722446129641</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.002094030852875292</v>
+      </c>
+      <c r="G82">
+        <v>0.0007525213117996238</v>
+      </c>
+      <c r="H82">
+        <v>-0.01567126379982546</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03807894320687507</v>
+        <v>-0.03055274345982459</v>
       </c>
       <c r="C83">
-        <v>0.005550383705031703</v>
+        <v>-0.01957938259140093</v>
       </c>
       <c r="D83">
-        <v>-0.00730348253290926</v>
+        <v>0.004507645467976221</v>
       </c>
       <c r="E83">
-        <v>-0.03755351682906053</v>
+        <v>-0.02227626952812178</v>
       </c>
       <c r="F83">
-        <v>0.01330091815765506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02269012624506266</v>
+      </c>
+      <c r="G83">
+        <v>-0.02608821215983171</v>
+      </c>
+      <c r="H83">
+        <v>-0.01282552987463927</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2440191483346866</v>
+        <v>-0.2452508417200195</v>
       </c>
       <c r="C85">
-        <v>0.005524737616359236</v>
+        <v>-0.1513958243209022</v>
       </c>
       <c r="D85">
-        <v>-0.1629772407148023</v>
+        <v>-0.02232674829559183</v>
       </c>
       <c r="E85">
-        <v>0.1815839510070378</v>
+        <v>0.1080157274264917</v>
       </c>
       <c r="F85">
-        <v>0.04025119055334547</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2089082372598204</v>
+      </c>
+      <c r="G85">
+        <v>0.06791169575074529</v>
+      </c>
+      <c r="H85">
+        <v>-0.001207719819860457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01443886410670824</v>
+        <v>-0.01011102156716957</v>
       </c>
       <c r="C86">
-        <v>-0.008509217228756326</v>
+        <v>-0.02597253661661137</v>
       </c>
       <c r="D86">
-        <v>-0.02501513671414343</v>
+        <v>0.009312040877900253</v>
       </c>
       <c r="E86">
-        <v>-0.0576643680821335</v>
+        <v>-0.0146882410903395</v>
       </c>
       <c r="F86">
-        <v>0.01833865524390793</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02355631984549653</v>
+      </c>
+      <c r="G86">
+        <v>-0.04672589528390306</v>
+      </c>
+      <c r="H86">
+        <v>0.02648684032355313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02978992362641196</v>
+        <v>-0.01872664875538597</v>
       </c>
       <c r="C87">
-        <v>-0.006646927512206247</v>
+        <v>-0.02806403944435445</v>
       </c>
       <c r="D87">
-        <v>-0.02798257699575234</v>
+        <v>0.01078722133131827</v>
       </c>
       <c r="E87">
-        <v>-0.1050549629716913</v>
+        <v>-0.07577296592775952</v>
       </c>
       <c r="F87">
-        <v>-0.03635782355817747</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.06386197555150784</v>
+      </c>
+      <c r="G87">
+        <v>-0.03764012214991896</v>
+      </c>
+      <c r="H87">
+        <v>0.006028668643661716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04853558859070101</v>
+        <v>-0.08294111366085576</v>
       </c>
       <c r="C88">
-        <v>0.007427614926492293</v>
+        <v>-0.05407287386768378</v>
       </c>
       <c r="D88">
-        <v>-0.006862000737008072</v>
+        <v>0.02041448156638623</v>
       </c>
       <c r="E88">
-        <v>-0.0005585529678658006</v>
+        <v>0.02142886611305476</v>
       </c>
       <c r="F88">
-        <v>-0.02541294298626811</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01011724389316927</v>
+      </c>
+      <c r="G88">
+        <v>-0.02119737886182908</v>
+      </c>
+      <c r="H88">
+        <v>-0.0240734987672211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1859813543702398</v>
+        <v>-0.2234137892217945</v>
       </c>
       <c r="C89">
-        <v>0.1055427680617648</v>
+        <v>0.3725345467703786</v>
       </c>
       <c r="D89">
-        <v>0.3711474306534316</v>
+        <v>-0.01209838175683187</v>
       </c>
       <c r="E89">
-        <v>0.01557812040234593</v>
+        <v>0.005825022003255816</v>
       </c>
       <c r="F89">
-        <v>0.003204287986236309</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02701927233779017</v>
+      </c>
+      <c r="G89">
+        <v>-0.02439107284566085</v>
+      </c>
+      <c r="H89">
+        <v>-0.007913759051936005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1118861127684641</v>
+        <v>-0.1836542107027979</v>
       </c>
       <c r="C90">
-        <v>0.09344220413807984</v>
+        <v>0.3377399076244555</v>
       </c>
       <c r="D90">
-        <v>0.3236212067978999</v>
+        <v>-0.01389304047990786</v>
       </c>
       <c r="E90">
-        <v>0.05841179159526996</v>
+        <v>-0.007722890658490266</v>
       </c>
       <c r="F90">
-        <v>0.0625771294833888</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04401940169521244</v>
+      </c>
+      <c r="G90">
+        <v>-0.00368126753400817</v>
+      </c>
+      <c r="H90">
+        <v>0.004408611458902522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2637036901445479</v>
+        <v>-0.2135726896381529</v>
       </c>
       <c r="C91">
-        <v>-0.002331640556651968</v>
+        <v>-0.1351612524481561</v>
       </c>
       <c r="D91">
-        <v>-0.1773149577944237</v>
+        <v>-0.02741208079320452</v>
       </c>
       <c r="E91">
-        <v>0.2377382041710556</v>
+        <v>0.08884068221942236</v>
       </c>
       <c r="F91">
-        <v>0.04257293020973627</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1967884824245447</v>
+      </c>
+      <c r="G91">
+        <v>0.02195284859400687</v>
+      </c>
+      <c r="H91">
+        <v>-0.003836359943294542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2636522920752733</v>
+        <v>-0.2188152257902999</v>
       </c>
       <c r="C92">
-        <v>0.09538626146967734</v>
+        <v>0.2691089284264921</v>
       </c>
       <c r="D92">
-        <v>0.3159496887310053</v>
+        <v>-0.05776197625024288</v>
       </c>
       <c r="E92">
-        <v>0.1527802462577458</v>
+        <v>-0.000770938143174312</v>
       </c>
       <c r="F92">
-        <v>0.2491956263650926</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1413443980365357</v>
+      </c>
+      <c r="G92">
+        <v>-0.04960461762213961</v>
+      </c>
+      <c r="H92">
+        <v>-0.008541820478052782</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.166670911117994</v>
+        <v>-0.2102743695868328</v>
       </c>
       <c r="C93">
-        <v>0.1214013073452894</v>
+        <v>0.3331861468089407</v>
       </c>
       <c r="D93">
-        <v>0.3728890638338638</v>
+        <v>-0.02072830688013106</v>
       </c>
       <c r="E93">
-        <v>0.02717767456465777</v>
+        <v>-0.01844532630530517</v>
       </c>
       <c r="F93">
-        <v>0.008260319009617774</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01511069215489171</v>
+      </c>
+      <c r="G93">
+        <v>0.001347207504144013</v>
+      </c>
+      <c r="H93">
+        <v>0.03815193880593007</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3132430599283972</v>
+        <v>-0.2851695918149315</v>
       </c>
       <c r="C94">
-        <v>0.03512413935980384</v>
+        <v>-0.1558944894085415</v>
       </c>
       <c r="D94">
-        <v>-0.1510956943738774</v>
+        <v>-0.01585538565116385</v>
       </c>
       <c r="E94">
-        <v>0.2333658335488877</v>
+        <v>0.1006104153860392</v>
       </c>
       <c r="F94">
-        <v>0.1150896548034682</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3601135263742276</v>
+      </c>
+      <c r="G94">
+        <v>0.1324161336217502</v>
+      </c>
+      <c r="H94">
+        <v>-0.2112613337356819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08366250829554471</v>
+        <v>-0.07533466424630467</v>
       </c>
       <c r="C95">
-        <v>0.07457673873694544</v>
+        <v>-0.08393717431677511</v>
       </c>
       <c r="D95">
-        <v>-0.05306607877514914</v>
+        <v>-0.007593895790931131</v>
       </c>
       <c r="E95">
-        <v>-0.02243890388841745</v>
+        <v>-0.07644623018416784</v>
       </c>
       <c r="F95">
-        <v>-0.08826760180966209</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1480562234004062</v>
+      </c>
+      <c r="G95">
+        <v>0.06059911881009573</v>
+      </c>
+      <c r="H95">
+        <v>0.02637415118092266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2213048606697396</v>
+        <v>-0.215636923849664</v>
       </c>
       <c r="C98">
-        <v>0.06820869105103433</v>
+        <v>-0.04630381179975648</v>
       </c>
       <c r="D98">
-        <v>0.01468912904404603</v>
+        <v>-0.02075831765772768</v>
       </c>
       <c r="E98">
-        <v>-0.2359367744381102</v>
+        <v>-0.06757302774412194</v>
       </c>
       <c r="F98">
-        <v>-0.3534002453405263</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2578150919308259</v>
+      </c>
+      <c r="G98">
+        <v>0.02734981909770903</v>
+      </c>
+      <c r="H98">
+        <v>0.04686812120744321</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.02887924723942101</v>
+        <v>-0.01490097383783113</v>
       </c>
       <c r="C101">
-        <v>-0.002260808681827278</v>
+        <v>-0.02243089052627914</v>
       </c>
       <c r="D101">
-        <v>-0.02289068145081026</v>
+        <v>0.008037476417040244</v>
       </c>
       <c r="E101">
-        <v>-0.1218484628216693</v>
+        <v>-0.03285679657246059</v>
       </c>
       <c r="F101">
-        <v>0.1647452920476161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02287731554313908</v>
+      </c>
+      <c r="G101">
+        <v>-0.03105231868039432</v>
+      </c>
+      <c r="H101">
+        <v>-0.02514165460465377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1309708283616335</v>
+        <v>-0.1221754216279102</v>
       </c>
       <c r="C102">
-        <v>-0.003034313277931211</v>
+        <v>-0.07803303272536</v>
       </c>
       <c r="D102">
-        <v>-0.07392782302783361</v>
+        <v>-0.001306901077053398</v>
       </c>
       <c r="E102">
-        <v>0.105119858523025</v>
+        <v>0.0468254859349285</v>
       </c>
       <c r="F102">
-        <v>0.04215240081500642</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06167512764442699</v>
+      </c>
+      <c r="G102">
+        <v>0.01882789715865328</v>
+      </c>
+      <c r="H102">
+        <v>0.01138215894008035</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0324654733359675</v>
+        <v>-0.006248732674169609</v>
       </c>
       <c r="C103">
-        <v>-0.01694853038088453</v>
+        <v>-0.005920807248257419</v>
       </c>
       <c r="D103">
-        <v>-0.02083076747325865</v>
+        <v>0.0003557331405249084</v>
       </c>
       <c r="E103">
-        <v>0.01279004744737199</v>
+        <v>0.00163513984912353</v>
       </c>
       <c r="F103">
-        <v>0.003547748343303281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01147658094707604</v>
+      </c>
+      <c r="G103">
+        <v>-0.01396815540709447</v>
+      </c>
+      <c r="H103">
+        <v>0.009065588773590514</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.04938215628754516</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04751077974535439</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9853700244664734</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04359124799132433</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.03475375641192044</v>
+      </c>
+      <c r="G104">
+        <v>-0.0001286369952236418</v>
+      </c>
+      <c r="H104">
+        <v>-0.09858540483181555</v>
       </c>
     </row>
   </sheetData>
